--- a/code/tables/compare_last.xlsx
+++ b/code/tables/compare_last.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\course_4\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE5BE1D-0847-4A8C-A6AF-ADAE1E64EEDA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7108525-A19B-487C-AB5F-ADF7F3036074}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E160" sqref="E160"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="K151" sqref="J2:K151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5529,27 +5529,27 @@
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f>SUM(B2:B151)</f>
+        <f t="shared" ref="B152:G152" si="6">SUM(B2:B151)</f>
         <v>7421.5599999999995</v>
       </c>
       <c r="C152">
-        <f>SUM(C2:C151)</f>
+        <f t="shared" si="6"/>
         <v>-1830.4450000000008</v>
       </c>
       <c r="D152">
-        <f>SUM(D2:D151)</f>
+        <f t="shared" si="6"/>
         <v>51363</v>
       </c>
       <c r="E152">
-        <f>SUM(E2:E151)</f>
+        <f t="shared" si="6"/>
         <v>48898</v>
       </c>
       <c r="F152">
-        <f>SUM(F2:F151)</f>
+        <f t="shared" si="6"/>
         <v>51426</v>
       </c>
       <c r="G152">
-        <f>SUM(G2:G151)</f>
+        <f t="shared" si="6"/>
         <v>48961</v>
       </c>
       <c r="J152">

--- a/code/tables/compare_last.xlsx
+++ b/code/tables/compare_last.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\course_4\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7108525-A19B-487C-AB5F-ADF7F3036074}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF50C2-ED6B-4006-8D93-2C90D100C0C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
       <selection activeCell="K151" sqref="J2:K151"/>
     </sheetView>
   </sheetViews>

--- a/code/tables/compare_last.xlsx
+++ b/code/tables/compare_last.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\course_4\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF50C2-ED6B-4006-8D93-2C90D100C0C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1196E8A-7EF6-4709-B99E-6E19165C7930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:O157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="K151" sqref="J2:K151"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="K162" sqref="K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
         <v>304</v>
       </c>
       <c r="J2">
-        <v>53.036999999999999</v>
+        <v>54.917000000000002</v>
       </c>
       <c r="K2">
         <v>-43.363</v>
@@ -481,7 +481,7 @@
         <v>449</v>
       </c>
       <c r="J3">
-        <v>27.151</v>
+        <v>28.788</v>
       </c>
       <c r="K3">
         <v>106.52800000000001</v>
@@ -515,7 +515,7 @@
         <v>339</v>
       </c>
       <c r="J4">
-        <v>74.247</v>
+        <v>75.25</v>
       </c>
       <c r="K4">
         <v>-4.6349999999999998</v>
@@ -549,7 +549,7 @@
         <v>316</v>
       </c>
       <c r="J5">
-        <v>52.991</v>
+        <v>54.871000000000002</v>
       </c>
       <c r="K5">
         <v>52.783999999999999</v>
@@ -583,7 +583,7 @@
         <v>383</v>
       </c>
       <c r="J6">
-        <v>31.576000000000001</v>
+        <v>33.366</v>
       </c>
       <c r="K6">
         <v>91.873000000000005</v>
@@ -617,7 +617,7 @@
         <v>353</v>
       </c>
       <c r="J7">
-        <v>66.968000000000004</v>
+        <v>68.358000000000004</v>
       </c>
       <c r="K7">
         <v>65.725999999999999</v>
@@ -651,7 +651,7 @@
         <v>473</v>
       </c>
       <c r="J8">
-        <v>35.491999999999997</v>
+        <v>37.381</v>
       </c>
       <c r="K8">
         <v>-121.709</v>
@@ -685,7 +685,7 @@
         <v>353</v>
       </c>
       <c r="J9">
-        <v>80.076999999999998</v>
+        <v>80.727000000000004</v>
       </c>
       <c r="K9">
         <v>-2.4900000000000002</v>
@@ -753,7 +753,7 @@
         <v>402</v>
       </c>
       <c r="J11">
-        <v>41.026000000000003</v>
+        <v>42.991</v>
       </c>
       <c r="K11">
         <v>-99.897999999999996</v>
@@ -787,7 +787,7 @@
         <v>369</v>
       </c>
       <c r="J12">
-        <v>28.135000000000002</v>
+        <v>29.81</v>
       </c>
       <c r="K12">
         <v>-88.37</v>
@@ -821,7 +821,7 @@
         <v>339</v>
       </c>
       <c r="J13">
-        <v>47.902000000000001</v>
+        <v>49.86</v>
       </c>
       <c r="K13">
         <v>71.87</v>
@@ -889,7 +889,7 @@
         <v>464</v>
       </c>
       <c r="J15">
-        <v>44.009</v>
+        <v>45.984999999999999</v>
       </c>
       <c r="K15">
         <v>-130.23599999999999</v>
@@ -923,7 +923,7 @@
         <v>376</v>
       </c>
       <c r="J16">
-        <v>76.738</v>
+        <v>77.593999999999994</v>
       </c>
       <c r="K16">
         <v>-88.152000000000001</v>
@@ -957,7 +957,7 @@
         <v>368</v>
       </c>
       <c r="J17">
-        <v>21.324999999999999</v>
+        <v>22.699000000000002</v>
       </c>
       <c r="K17">
         <v>-88.64</v>
@@ -991,7 +991,7 @@
         <v>389</v>
       </c>
       <c r="J18">
-        <v>23.32</v>
+        <v>24.791</v>
       </c>
       <c r="K18">
         <v>-92.441000000000003</v>
@@ -1059,7 +1059,7 @@
         <v>377</v>
       </c>
       <c r="J20">
-        <v>72.691000000000003</v>
+        <v>73.781999999999996</v>
       </c>
       <c r="K20">
         <v>-91.397000000000006</v>
@@ -1093,7 +1093,7 @@
         <v>216</v>
       </c>
       <c r="J21">
-        <v>39.014000000000003</v>
+        <v>40.96</v>
       </c>
       <c r="K21">
         <v>-9.9260000000000002</v>
@@ -1127,7 +1127,7 @@
         <v>414</v>
       </c>
       <c r="J22">
-        <v>60.225000000000001</v>
+        <v>61.898000000000003</v>
       </c>
       <c r="K22">
         <v>120.31100000000001</v>
@@ -1161,7 +1161,7 @@
         <v>234</v>
       </c>
       <c r="J23">
-        <v>41.459000000000003</v>
+        <v>43.427999999999997</v>
       </c>
       <c r="K23">
         <v>17.582999999999998</v>
@@ -1229,7 +1229,7 @@
         <v>383</v>
       </c>
       <c r="J25">
-        <v>27.847999999999999</v>
+        <v>29.512</v>
       </c>
       <c r="K25">
         <v>91.61</v>
@@ -1263,7 +1263,7 @@
         <v>302</v>
       </c>
       <c r="J26">
-        <v>58.38</v>
+        <v>60.116</v>
       </c>
       <c r="K26">
         <v>24.033999999999999</v>
@@ -1297,7 +1297,7 @@
         <v>391</v>
       </c>
       <c r="J27">
-        <v>83.001000000000005</v>
+        <v>83.463999999999999</v>
       </c>
       <c r="K27">
         <v>-158.19900000000001</v>
@@ -1331,7 +1331,7 @@
         <v>400</v>
       </c>
       <c r="J28">
-        <v>45.734999999999999</v>
+        <v>47.707999999999998</v>
       </c>
       <c r="K28">
         <v>100.78400000000001</v>
@@ -1399,7 +1399,7 @@
         <v>236</v>
       </c>
       <c r="J30">
-        <v>42.667999999999999</v>
+        <v>44.642000000000003</v>
       </c>
       <c r="K30">
         <v>-11.31</v>
@@ -1433,7 +1433,7 @@
         <v>376</v>
       </c>
       <c r="J31">
-        <v>88.623000000000005</v>
+        <v>88.715000000000003</v>
       </c>
       <c r="K31">
         <v>-71.564999999999998</v>
@@ -1467,7 +1467,7 @@
         <v>386</v>
       </c>
       <c r="J32">
-        <v>76.488</v>
+        <v>77.358999999999995</v>
       </c>
       <c r="K32">
         <v>108.435</v>
@@ -1501,7 +1501,7 @@
         <v>313</v>
       </c>
       <c r="J33">
-        <v>64.081999999999994</v>
+        <v>65.602000000000004</v>
       </c>
       <c r="K33">
         <v>9.9039999999999999</v>
@@ -1535,7 +1535,7 @@
         <v>350</v>
       </c>
       <c r="J34">
-        <v>76.25</v>
+        <v>77.135000000000005</v>
       </c>
       <c r="K34">
         <v>36.158000000000001</v>
@@ -1569,7 +1569,7 @@
         <v>346</v>
       </c>
       <c r="J35">
-        <v>67.968000000000004</v>
+        <v>69.308999999999997</v>
       </c>
       <c r="K35">
         <v>55.713000000000001</v>
@@ -1603,7 +1603,7 @@
         <v>375</v>
       </c>
       <c r="J36">
-        <v>33.213999999999999</v>
+        <v>35.048999999999999</v>
       </c>
       <c r="K36">
         <v>89.715000000000003</v>
@@ -1637,7 +1637,7 @@
         <v>466</v>
       </c>
       <c r="J37">
-        <v>51.561999999999998</v>
+        <v>53.470999999999997</v>
       </c>
       <c r="K37">
         <v>-149.50700000000001</v>
@@ -1671,7 +1671,7 @@
         <v>417</v>
       </c>
       <c r="J38">
-        <v>70.341999999999999</v>
+        <v>71.561000000000007</v>
       </c>
       <c r="K38">
         <v>150.709</v>
@@ -1705,7 +1705,7 @@
         <v>391</v>
       </c>
       <c r="J39">
-        <v>77.150999999999996</v>
+        <v>77.981999999999999</v>
       </c>
       <c r="K39">
         <v>119.982</v>
@@ -1739,7 +1739,7 @@
         <v>509</v>
       </c>
       <c r="J40">
-        <v>44.694000000000003</v>
+        <v>46.668999999999997</v>
       </c>
       <c r="K40">
         <v>179.13800000000001</v>
@@ -1773,7 +1773,7 @@
         <v>363</v>
       </c>
       <c r="J41">
-        <v>83.790999999999997</v>
+        <v>84.201999999999998</v>
       </c>
       <c r="K41">
         <v>-24.774999999999999</v>
@@ -1807,7 +1807,7 @@
         <v>398</v>
       </c>
       <c r="J42">
-        <v>80.356999999999999</v>
+        <v>80.989000000000004</v>
       </c>
       <c r="K42">
         <v>169.69499999999999</v>
@@ -1841,7 +1841,7 @@
         <v>377</v>
       </c>
       <c r="J43">
-        <v>89.384</v>
+        <v>89.424999999999997</v>
       </c>
       <c r="K43">
         <v>135</v>
@@ -1875,7 +1875,7 @@
         <v>586</v>
       </c>
       <c r="J44">
-        <v>23.151</v>
+        <v>24.614000000000001</v>
       </c>
       <c r="K44">
         <v>133.02500000000001</v>
@@ -1909,7 +1909,7 @@
         <v>363</v>
       </c>
       <c r="J45">
-        <v>82.626999999999995</v>
+        <v>83.113</v>
       </c>
       <c r="K45">
         <v>-40.235999999999997</v>
@@ -1943,7 +1943,7 @@
         <v>394</v>
       </c>
       <c r="J46">
-        <v>68.010999999999996</v>
+        <v>69.349000000000004</v>
       </c>
       <c r="K46">
         <v>109.79900000000001</v>
@@ -1977,7 +1977,7 @@
         <v>459</v>
       </c>
       <c r="J47">
-        <v>53.488999999999997</v>
+        <v>55.359000000000002</v>
       </c>
       <c r="K47">
         <v>148.43100000000001</v>
@@ -2011,7 +2011,7 @@
         <v>374</v>
       </c>
       <c r="J48">
-        <v>74.275000000000006</v>
+        <v>75.275999999999996</v>
       </c>
       <c r="K48">
         <v>-86.906000000000006</v>
@@ -2045,7 +2045,7 @@
         <v>396</v>
       </c>
       <c r="J49">
-        <v>76.959999999999994</v>
+        <v>77.802000000000007</v>
       </c>
       <c r="K49">
         <v>-131.00899999999999</v>
@@ -2079,7 +2079,7 @@
         <v>45</v>
       </c>
       <c r="J50">
-        <v>19.231000000000002</v>
+        <v>20.492999999999999</v>
       </c>
       <c r="K50">
         <v>28.670999999999999</v>
@@ -2113,7 +2113,7 @@
         <v>460</v>
       </c>
       <c r="J51">
-        <v>43.720999999999997</v>
+        <v>45.697000000000003</v>
       </c>
       <c r="K51">
         <v>-127.619</v>
@@ -2147,7 +2147,7 @@
         <v>123</v>
       </c>
       <c r="J52">
-        <v>20.526</v>
+        <v>21.858000000000001</v>
       </c>
       <c r="K52">
         <v>43.963000000000001</v>
@@ -2181,7 +2181,7 @@
         <v>302</v>
       </c>
       <c r="J53">
-        <v>60.594999999999999</v>
+        <v>62.255000000000003</v>
       </c>
       <c r="K53">
         <v>3.8650000000000002</v>
@@ -2215,7 +2215,7 @@
         <v>456</v>
       </c>
       <c r="J54">
-        <v>55.527000000000001</v>
+        <v>57.347999999999999</v>
       </c>
       <c r="K54">
         <v>-152.30099999999999</v>
@@ -2249,7 +2249,7 @@
         <v>412</v>
       </c>
       <c r="J55">
-        <v>69.117000000000004</v>
+        <v>70.399000000000001</v>
       </c>
       <c r="K55">
         <v>-135.80699999999999</v>
@@ -2283,7 +2283,7 @@
         <v>379</v>
       </c>
       <c r="J56">
-        <v>73.846000000000004</v>
+        <v>74.872</v>
       </c>
       <c r="K56">
         <v>-94.513999999999996</v>
@@ -2317,7 +2317,7 @@
         <v>465</v>
       </c>
       <c r="J57">
-        <v>54.576000000000001</v>
+        <v>56.420999999999999</v>
       </c>
       <c r="K57">
         <v>-161.952</v>
@@ -2385,7 +2385,7 @@
         <v>262</v>
       </c>
       <c r="J59">
-        <v>49.011000000000003</v>
+        <v>50.957000000000001</v>
       </c>
       <c r="K59">
         <v>-4.5140000000000002</v>
@@ -2419,7 +2419,7 @@
         <v>435</v>
       </c>
       <c r="J60">
-        <v>61.368000000000002</v>
+        <v>62.999000000000002</v>
       </c>
       <c r="K60">
         <v>145.20400000000001</v>
@@ -2453,7 +2453,7 @@
         <v>438</v>
       </c>
       <c r="J61">
-        <v>58.412999999999997</v>
+        <v>60.149000000000001</v>
       </c>
       <c r="K61">
         <v>-140.01300000000001</v>
@@ -2487,7 +2487,7 @@
         <v>169</v>
       </c>
       <c r="J62">
-        <v>26.004000000000001</v>
+        <v>27.594000000000001</v>
       </c>
       <c r="K62">
         <v>-39.887</v>
@@ -2521,7 +2521,7 @@
         <v>336</v>
       </c>
       <c r="J63">
-        <v>69.421999999999997</v>
+        <v>70.69</v>
       </c>
       <c r="K63">
         <v>-35.942</v>
@@ -2555,7 +2555,7 @@
         <v>390</v>
       </c>
       <c r="J64">
-        <v>81.138000000000005</v>
+        <v>81.72</v>
       </c>
       <c r="K64">
         <v>-133.02500000000001</v>
@@ -2623,7 +2623,7 @@
         <v>513</v>
       </c>
       <c r="J66">
-        <v>41.715000000000003</v>
+        <v>43.685000000000002</v>
       </c>
       <c r="K66">
         <v>-158.12700000000001</v>
@@ -2657,7 +2657,7 @@
         <v>348</v>
       </c>
       <c r="J67">
-        <v>69.956999999999994</v>
+        <v>71.195999999999998</v>
       </c>
       <c r="K67">
         <v>-54.323999999999998</v>
@@ -2691,7 +2691,7 @@
         <v>688</v>
       </c>
       <c r="J68">
-        <v>22.768999999999998</v>
+        <v>24.213999999999999</v>
       </c>
       <c r="K68">
         <v>-174.32599999999999</v>
@@ -2725,7 +2725,7 @@
         <v>381</v>
       </c>
       <c r="J69">
-        <v>85.9</v>
+        <v>86.171999999999997</v>
       </c>
       <c r="K69">
         <v>-122.005</v>
@@ -2759,7 +2759,7 @@
         <v>356</v>
       </c>
       <c r="J70">
-        <v>36.305</v>
+        <v>38.209000000000003</v>
       </c>
       <c r="K70">
         <v>83.588999999999999</v>
@@ -2793,7 +2793,7 @@
         <v>206</v>
       </c>
       <c r="J71">
-        <v>36.372999999999998</v>
+        <v>38.277999999999999</v>
       </c>
       <c r="K71">
         <v>-17.928000000000001</v>
@@ -2827,7 +2827,7 @@
         <v>338</v>
       </c>
       <c r="J72">
-        <v>44.176000000000002</v>
+        <v>46.152000000000001</v>
       </c>
       <c r="K72">
         <v>-73.706000000000003</v>
@@ -2861,7 +2861,7 @@
         <v>467</v>
       </c>
       <c r="J73">
-        <v>28.559000000000001</v>
+        <v>30.25</v>
       </c>
       <c r="K73">
         <v>-112.10899999999999</v>
@@ -2895,7 +2895,7 @@
         <v>459</v>
       </c>
       <c r="J74">
-        <v>32.984999999999999</v>
+        <v>34.814</v>
       </c>
       <c r="K74">
         <v>-114.163</v>
@@ -2929,7 +2929,7 @@
         <v>321</v>
       </c>
       <c r="J75">
-        <v>59.186</v>
+        <v>60.896000000000001</v>
       </c>
       <c r="K75">
         <v>45.515999999999998</v>
@@ -2963,7 +2963,7 @@
         <v>613</v>
       </c>
       <c r="J76">
-        <v>25.838000000000001</v>
+        <v>27.420999999999999</v>
       </c>
       <c r="K76">
         <v>-150.69999999999999</v>
@@ -3031,7 +3031,7 @@
         <v>272</v>
       </c>
       <c r="J78">
-        <v>49.168999999999997</v>
+        <v>51.113</v>
       </c>
       <c r="K78">
         <v>-23.86</v>
@@ -3065,7 +3065,7 @@
         <v>342</v>
       </c>
       <c r="J79">
-        <v>52.264000000000003</v>
+        <v>54.16</v>
       </c>
       <c r="K79">
         <v>-70.498000000000005</v>
@@ -3099,7 +3099,7 @@
         <v>256</v>
       </c>
       <c r="J80">
-        <v>47.591000000000001</v>
+        <v>49.552</v>
       </c>
       <c r="K80">
         <v>3.3380000000000001</v>
@@ -3133,7 +3133,7 @@
         <v>463</v>
       </c>
       <c r="J81">
-        <v>23.164999999999999</v>
+        <v>24.629000000000001</v>
       </c>
       <c r="K81">
         <v>106.432</v>
@@ -3167,7 +3167,7 @@
         <v>249</v>
       </c>
       <c r="J82">
-        <v>36.554000000000002</v>
+        <v>38.463000000000001</v>
       </c>
       <c r="K82">
         <v>-44.314999999999998</v>
@@ -3201,7 +3201,7 @@
         <v>82</v>
       </c>
       <c r="J83">
-        <v>23.667000000000002</v>
+        <v>25.154</v>
       </c>
       <c r="K83">
         <v>11.722</v>
@@ -3235,7 +3235,7 @@
         <v>447</v>
       </c>
       <c r="J84">
-        <v>60.006</v>
+        <v>61.686999999999998</v>
       </c>
       <c r="K84">
         <v>159.179</v>
@@ -3269,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="J85">
-        <v>18.748999999999999</v>
+        <v>19.984999999999999</v>
       </c>
       <c r="K85">
         <v>17.873999999999999</v>
@@ -3303,7 +3303,7 @@
         <v>235</v>
       </c>
       <c r="J86">
-        <v>38.548000000000002</v>
+        <v>40.488</v>
       </c>
       <c r="K86">
         <v>31.38</v>
@@ -3337,7 +3337,7 @@
         <v>364</v>
       </c>
       <c r="J87">
-        <v>72.016000000000005</v>
+        <v>73.144000000000005</v>
       </c>
       <c r="K87">
         <v>-73.686000000000007</v>
@@ -3371,7 +3371,7 @@
         <v>390</v>
       </c>
       <c r="J88">
-        <v>50.136000000000003</v>
+        <v>52.067</v>
       </c>
       <c r="K88">
         <v>-97.319000000000003</v>
@@ -3405,7 +3405,7 @@
         <v>493</v>
       </c>
       <c r="J89">
-        <v>21.013000000000002</v>
+        <v>22.37</v>
       </c>
       <c r="K89">
         <v>-109.96899999999999</v>
@@ -3439,7 +3439,7 @@
         <v>399</v>
       </c>
       <c r="J90">
-        <v>70.341999999999999</v>
+        <v>71.561000000000007</v>
       </c>
       <c r="K90">
         <v>-119.291</v>
@@ -3473,7 +3473,7 @@
         <v>334</v>
       </c>
       <c r="J91">
-        <v>70.694999999999993</v>
+        <v>71.896000000000001</v>
       </c>
       <c r="K91">
         <v>-24.341000000000001</v>
@@ -3507,7 +3507,7 @@
         <v>435</v>
       </c>
       <c r="J92">
-        <v>63.454999999999998</v>
+        <v>65.001999999999995</v>
       </c>
       <c r="K92">
         <v>153.82499999999999</v>
@@ -3541,7 +3541,7 @@
         <v>415</v>
       </c>
       <c r="J93">
-        <v>53.301000000000002</v>
+        <v>55.176000000000002</v>
       </c>
       <c r="K93">
         <v>-113.429</v>
@@ -3609,7 +3609,7 @@
         <v>453</v>
       </c>
       <c r="J95">
-        <v>52.558</v>
+        <v>54.448</v>
       </c>
       <c r="K95">
         <v>-139.83000000000001</v>
@@ -3643,7 +3643,7 @@
         <v>332</v>
       </c>
       <c r="J96">
-        <v>67.968000000000004</v>
+        <v>69.308999999999997</v>
       </c>
       <c r="K96">
         <v>-34.286999999999999</v>
@@ -3677,7 +3677,7 @@
         <v>365</v>
       </c>
       <c r="J97">
-        <v>40.261000000000003</v>
+        <v>42.22</v>
       </c>
       <c r="K97">
         <v>-85.941000000000003</v>
@@ -3711,7 +3711,7 @@
         <v>339</v>
       </c>
       <c r="J98">
-        <v>40.070999999999998</v>
+        <v>42.029000000000003</v>
       </c>
       <c r="K98">
         <v>76.319000000000003</v>
@@ -3745,7 +3745,7 @@
         <v>410</v>
       </c>
       <c r="J99">
-        <v>70.728999999999999</v>
+        <v>71.927999999999997</v>
       </c>
       <c r="K99">
         <v>-137.643</v>
@@ -3779,7 +3779,7 @@
         <v>351</v>
       </c>
       <c r="J100">
-        <v>64.688000000000002</v>
+        <v>66.182000000000002</v>
       </c>
       <c r="K100">
         <v>-66.317999999999998</v>
@@ -3813,7 +3813,7 @@
         <v>282</v>
       </c>
       <c r="J101">
-        <v>54.438000000000002</v>
+        <v>56.286000000000001</v>
       </c>
       <c r="K101">
         <v>2.4369999999999998</v>
@@ -3847,7 +3847,7 @@
         <v>376</v>
       </c>
       <c r="J102">
-        <v>82.2</v>
+        <v>82.713999999999999</v>
       </c>
       <c r="K102">
         <v>-86.82</v>
@@ -3881,7 +3881,7 @@
         <v>662</v>
       </c>
       <c r="J103">
-        <v>24.33</v>
+        <v>25.847999999999999</v>
       </c>
       <c r="K103">
         <v>-169.30799999999999</v>
@@ -3949,7 +3949,7 @@
         <v>276</v>
       </c>
       <c r="J105">
-        <v>49.304000000000002</v>
+        <v>51.247</v>
       </c>
       <c r="K105">
         <v>27.923999999999999</v>
@@ -3983,7 +3983,7 @@
         <v>330</v>
       </c>
       <c r="J106">
-        <v>70.037000000000006</v>
+        <v>71.272000000000006</v>
       </c>
       <c r="K106">
         <v>-15.781000000000001</v>
@@ -4051,7 +4051,7 @@
         <v>391</v>
       </c>
       <c r="J108">
-        <v>46.043999999999997</v>
+        <v>48.015000000000001</v>
       </c>
       <c r="K108">
         <v>-96.789000000000001</v>
@@ -4085,7 +4085,7 @@
         <v>295</v>
       </c>
       <c r="J109">
-        <v>49.137</v>
+        <v>51.082000000000001</v>
       </c>
       <c r="K109">
         <v>44.643999999999998</v>
@@ -4119,7 +4119,7 @@
         <v>221</v>
       </c>
       <c r="J110">
-        <v>33.792999999999999</v>
+        <v>35.643000000000001</v>
       </c>
       <c r="K110">
         <v>-37.976999999999997</v>
@@ -4153,7 +4153,7 @@
         <v>456</v>
       </c>
       <c r="J111">
-        <v>58.655000000000001</v>
+        <v>60.383000000000003</v>
       </c>
       <c r="K111">
         <v>176.42400000000001</v>
@@ -4187,7 +4187,7 @@
         <v>383</v>
       </c>
       <c r="J112">
-        <v>86.494</v>
+        <v>86.727000000000004</v>
       </c>
       <c r="K112">
         <v>150.255</v>
@@ -4255,7 +4255,7 @@
         <v>376</v>
       </c>
       <c r="J114">
-        <v>81.347999999999999</v>
+        <v>81.917000000000002</v>
       </c>
       <c r="K114">
         <v>-87.138000000000005</v>
@@ -4289,7 +4289,7 @@
         <v>347</v>
       </c>
       <c r="J115">
-        <v>62.21</v>
+        <v>63.808999999999997</v>
       </c>
       <c r="K115">
         <v>65.283000000000001</v>
@@ -4323,7 +4323,7 @@
         <v>372</v>
       </c>
       <c r="J116">
-        <v>78.695999999999998</v>
+        <v>79.432000000000002</v>
       </c>
       <c r="K116">
         <v>81.254000000000005</v>
@@ -4357,7 +4357,7 @@
         <v>365</v>
       </c>
       <c r="J117">
-        <v>81.606999999999999</v>
+        <v>82.159000000000006</v>
       </c>
       <c r="K117">
         <v>55.491</v>
@@ -4391,7 +4391,7 @@
         <v>398</v>
       </c>
       <c r="J118">
-        <v>48.820999999999998</v>
+        <v>50.77</v>
       </c>
       <c r="K118">
         <v>101.017</v>
@@ -4425,7 +4425,7 @@
         <v>557</v>
       </c>
       <c r="J119">
-        <v>31.021000000000001</v>
+        <v>32.793999999999997</v>
       </c>
       <c r="K119">
         <v>145.80199999999999</v>
@@ -4459,7 +4459,7 @@
         <v>167</v>
       </c>
       <c r="J120">
-        <v>17.544</v>
+        <v>18.712</v>
       </c>
       <c r="K120">
         <v>-59.862000000000002</v>
@@ -4493,7 +4493,7 @@
         <v>444</v>
       </c>
       <c r="J121">
-        <v>32.154000000000003</v>
+        <v>33.960999999999999</v>
       </c>
       <c r="K121">
         <v>-108.95399999999999</v>
@@ -4527,7 +4527,7 @@
         <v>377</v>
       </c>
       <c r="J122">
-        <v>87.781000000000006</v>
+        <v>87.929000000000002</v>
       </c>
       <c r="K122">
         <v>101.31</v>
@@ -4561,7 +4561,7 @@
         <v>260</v>
       </c>
       <c r="J123">
-        <v>48.337000000000003</v>
+        <v>50.290999999999997</v>
       </c>
       <c r="K123">
         <v>-7.8529999999999998</v>
@@ -4629,7 +4629,7 @@
         <v>481</v>
       </c>
       <c r="J125">
-        <v>38.741999999999997</v>
+        <v>40.685000000000002</v>
       </c>
       <c r="K125">
         <v>129.80600000000001</v>
@@ -4663,7 +4663,7 @@
         <v>116</v>
       </c>
       <c r="J126">
-        <v>24.155999999999999</v>
+        <v>25.666</v>
       </c>
       <c r="K126">
         <v>27.613</v>
@@ -4697,7 +4697,7 @@
         <v>379</v>
       </c>
       <c r="J127">
-        <v>73.846000000000004</v>
+        <v>74.872</v>
       </c>
       <c r="K127">
         <v>-94.513999999999996</v>
@@ -4765,7 +4765,7 @@
         <v>434</v>
       </c>
       <c r="J129">
-        <v>48.49</v>
+        <v>50.442999999999998</v>
       </c>
       <c r="K129">
         <v>-119.867</v>
@@ -4833,7 +4833,7 @@
         <v>260</v>
       </c>
       <c r="J131">
-        <v>48.101999999999997</v>
+        <v>50.058999999999997</v>
       </c>
       <c r="K131">
         <v>-10.739000000000001</v>
@@ -4867,7 +4867,7 @@
         <v>372</v>
       </c>
       <c r="J132">
-        <v>85.320999999999998</v>
+        <v>85.632000000000005</v>
       </c>
       <c r="K132">
         <v>68.198999999999998</v>
@@ -4901,7 +4901,7 @@
         <v>385</v>
       </c>
       <c r="J133">
-        <v>85.527000000000001</v>
+        <v>85.823999999999998</v>
       </c>
       <c r="K133">
         <v>-150.94499999999999</v>
@@ -4935,7 +4935,7 @@
         <v>480</v>
       </c>
       <c r="J134">
-        <v>46.005000000000003</v>
+        <v>47.975999999999999</v>
       </c>
       <c r="K134">
         <v>-144.934</v>
@@ -4969,7 +4969,7 @@
         <v>504</v>
       </c>
       <c r="J135">
-        <v>23.143999999999998</v>
+        <v>24.606999999999999</v>
       </c>
       <c r="K135">
         <v>114.56699999999999</v>
@@ -5003,7 +5003,7 @@
         <v>509</v>
       </c>
       <c r="J136">
-        <v>30.277000000000001</v>
+        <v>32.026000000000003</v>
       </c>
       <c r="K136">
         <v>-126.158</v>
@@ -5037,7 +5037,7 @@
         <v>193</v>
       </c>
       <c r="J137">
-        <v>35.542999999999999</v>
+        <v>37.433</v>
       </c>
       <c r="K137">
         <v>6.5460000000000003</v>
@@ -5105,7 +5105,7 @@
         <v>100</v>
       </c>
       <c r="J139">
-        <v>24.52</v>
+        <v>26.045999999999999</v>
       </c>
       <c r="K139">
         <v>-16.928000000000001</v>
@@ -5139,7 +5139,7 @@
         <v>421</v>
       </c>
       <c r="J140">
-        <v>53.588999999999999</v>
+        <v>55.457000000000001</v>
       </c>
       <c r="K140">
         <v>117.621</v>
@@ -5173,7 +5173,7 @@
         <v>388</v>
       </c>
       <c r="J141">
-        <v>82.343000000000004</v>
+        <v>82.847999999999999</v>
       </c>
       <c r="K141">
         <v>-132.709</v>
@@ -5207,7 +5207,7 @@
         <v>350</v>
       </c>
       <c r="J142">
-        <v>75.222999999999999</v>
+        <v>76.168999999999997</v>
       </c>
       <c r="K142">
         <v>-41.496000000000002</v>
@@ -5241,7 +5241,7 @@
         <v>484</v>
       </c>
       <c r="J143">
-        <v>22.132999999999999</v>
+        <v>23.547000000000001</v>
       </c>
       <c r="K143">
         <v>109.499</v>
@@ -5275,7 +5275,7 @@
         <v>367</v>
       </c>
       <c r="J144">
-        <v>84.772000000000006</v>
+        <v>85.119</v>
       </c>
       <c r="K144">
         <v>-41.634</v>
@@ -5309,7 +5309,7 @@
         <v>266</v>
       </c>
       <c r="J145">
-        <v>45.845999999999997</v>
+        <v>47.817999999999998</v>
       </c>
       <c r="K145">
         <v>-30.579000000000001</v>
@@ -5343,7 +5343,7 @@
         <v>249</v>
       </c>
       <c r="J146">
-        <v>35.695</v>
+        <v>37.588000000000001</v>
       </c>
       <c r="K146">
         <v>46.106000000000002</v>
@@ -5377,7 +5377,7 @@
         <v>322</v>
       </c>
       <c r="J147">
-        <v>65.515000000000001</v>
+        <v>66.971999999999994</v>
       </c>
       <c r="K147">
         <v>-25.71</v>
@@ -5411,7 +5411,7 @@
         <v>380</v>
       </c>
       <c r="J148">
-        <v>88.204999999999998</v>
+        <v>88.325000000000003</v>
       </c>
       <c r="K148">
         <v>-165.964</v>
@@ -5445,7 +5445,7 @@
         <v>403</v>
       </c>
       <c r="J149">
-        <v>75.176000000000002</v>
+        <v>76.125</v>
       </c>
       <c r="K149">
         <v>-140.82599999999999</v>
@@ -5479,7 +5479,7 @@
         <v>403</v>
       </c>
       <c r="J150">
-        <v>58.2</v>
+        <v>59.942</v>
       </c>
       <c r="K150">
         <v>-109.32299999999999</v>
@@ -5513,7 +5513,7 @@
         <v>316</v>
       </c>
       <c r="J151">
-        <v>48.874000000000002</v>
+        <v>50.822000000000003</v>
       </c>
       <c r="K151">
         <v>-58.523000000000003</v>
@@ -5554,7 +5554,7 @@
       </c>
       <c r="J152">
         <f>SUM(J2:J151)</f>
-        <v>7193.8329999999978</v>
+        <v>7386.1730000000007</v>
       </c>
       <c r="K152">
         <f>SUM(K2:K151)</f>
@@ -5592,7 +5592,7 @@
       </c>
       <c r="G157">
         <f xml:space="preserve"> ABS(B152 - J152) / (150 - B157)</f>
-        <v>1.67446323529413</v>
+        <v>0.26019852941175592</v>
       </c>
       <c r="H157">
         <f xml:space="preserve"> ABS(C152 - K152) / (150 - B157)</f>

--- a/code/tables/compare_last.xlsx
+++ b/code/tables/compare_last.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\course_4\code\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1196E8A-7EF6-4709-B99E-6E19165C7930}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBB933-11D7-46A2-A4D5-117064FB6C65}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,6 +96,1816 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-42.639000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.27200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.6850000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.686999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.692999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-121.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-99.427999999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-88.165999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.668000000000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-130.095</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-87.296999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-88.457999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-92.331000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-89.61</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.6159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119.098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91.341999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.416</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-160.578</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11.019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-58.636000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>105.94199999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.272</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55.468000000000004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.334999999999994</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-149.82400000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>148.80099999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>117.294</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>178.608</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-20.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>166.28299999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-36.078000000000003</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>147.833</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-85.031000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-131.01499999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.693999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-127.816</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.94</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.7699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-152.65199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-135.60499999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-93.617000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-162.124</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-3.8690000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>144.01900000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-139.96700000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-39.694000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-34.591999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-132.49</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-158.47900000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-52.863</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-174.45500000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-119.164</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>83.42</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-17.667000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-73.325000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-111.976</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-113.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-150.79499999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-23.091000000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-69.713999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>106.139</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-43.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.817</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>158.041</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>18.056000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>31.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-71.551000000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-97.024000000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-109.88500000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-118.545</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-23.148</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>152.417</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-113.46599999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-139.99700000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-32.860999999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-85.603999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>76.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-137.72999999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-65.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.8290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-85.506</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-169.48099999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>28.268999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-14.814</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-96.626000000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.661999999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-37.615000000000002</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>175.67400000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>138.66</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-85.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>64.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>79.641999999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>55.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>100.459</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>145.339</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-59.701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-108.788</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>87.867000000000004</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-7.2279999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>129.399</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.62</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-93.623999999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-119.54600000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-10.407999999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>65.510000000000005</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-154.28</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-145.17699999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>114.31699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-126.048</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.694</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-16.632999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>117.113</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-132.05799999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-39.262</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>109.211</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-36.267000000000003</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-29.952000000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>46.07</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-24.606000000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>174.26300000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-141.762</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-108.67700000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-57.781999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8946-4448-9F7E-24BB71209F06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>-43.363</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.52800000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.6349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.783999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91.873000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.725999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-121.709</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-99.897999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-88.37</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>71.87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-130.23599999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-88.152000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-88.64</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-92.441000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-91.397000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-9.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>120.31100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.582999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>91.61</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.033999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-158.19900000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>100.78400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-11.31</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-71.564999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>108.435</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.9039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.158000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55.713000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>89.715000000000003</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-149.50700000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>150.709</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>119.982</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>179.13800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-24.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>169.69499999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>133.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-40.235999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>109.79900000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>148.43100000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-86.906000000000006</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-131.00899999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>28.670999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-127.619</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43.963000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.8650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-152.30099999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-135.80699999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-94.513999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-161.952</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-4.5140000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>145.20400000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-140.01300000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-39.887</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-35.942</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-133.02500000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-158.12700000000001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-54.323999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-174.32599999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-122.005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>83.588999999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-17.928000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-73.706000000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-112.10899999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-114.163</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45.515999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-150.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-23.86</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-70.498000000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.3380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>106.432</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-44.314999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>11.722</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>159.179</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.873999999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>31.38</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-73.686000000000007</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-97.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-109.96899999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-119.291</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-24.341000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>153.82499999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-113.429</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-34.286999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-85.941000000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>76.319000000000003</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-137.643</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-66.317999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4369999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-86.82</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-169.30799999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>27.923999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-15.781000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-96.789000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.643999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-37.976999999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>176.42400000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>150.255</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-87.138000000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>65.283000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>81.254000000000005</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>55.491</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>101.017</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>145.80199999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-59.862000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-108.95399999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>101.31</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-7.8529999999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>129.80600000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>27.613</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-94.513999999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-119.867</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-10.739000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>68.198999999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-150.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-144.934</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>114.56699999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-126.158</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.5460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-16.928000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>117.621</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-132.709</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-41.496000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>109.499</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-41.634</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-30.579000000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>46.106000000000002</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-25.71</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>165.964</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-140.82599999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-109.32299999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-58.523000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8946-4448-9F7E-24BB71209F06}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1157033216"/>
+        <c:axId val="1167924848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1157033216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1167924848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1167924848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1157033216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>320001</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>167310</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F5C52B-5B11-49DB-85CA-EFE6F77D27AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -395,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O157"/>
+  <dimension ref="B1:R157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K162" sqref="K162"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R122" sqref="B122:R122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +2223,7 @@
     <col min="9" max="9" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +2237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>54.9</v>
       </c>
@@ -460,8 +2270,12 @@
         <f xml:space="preserve"> E2 - G2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <f>C2-K2</f>
+        <v>0.72399999999999665</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>28.759</v>
       </c>
@@ -494,8 +2308,12 @@
         <f t="shared" ref="O3:O66" si="1" xml:space="preserve"> E3 - G3</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="2">C3-K3</f>
+        <v>-0.25600000000000023</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>75.05</v>
       </c>
@@ -528,8 +2346,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <f t="shared" si="2"/>
+        <v>0.94999999999999973</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>54.353000000000002</v>
       </c>
@@ -562,8 +2384,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <f t="shared" si="2"/>
+        <v>-0.1109999999999971</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>33.250999999999998</v>
       </c>
@@ -596,8 +2422,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <f t="shared" si="2"/>
+        <v>-0.18600000000000705</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>67.918000000000006</v>
       </c>
@@ -630,8 +2460,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <f t="shared" si="2"/>
+        <v>-1.0330000000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>37.591999999999999</v>
       </c>
@@ -664,8 +2498,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <f t="shared" si="2"/>
+        <v>0.24900000000000944</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>80.48</v>
       </c>
@@ -698,8 +2536,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <f t="shared" si="2"/>
+        <v>1.9010000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>0</v>
       </c>
@@ -732,8 +2574,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>43.179000000000002</v>
       </c>
@@ -766,8 +2612,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <f t="shared" si="2"/>
+        <v>0.46999999999999886</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>29.899000000000001</v>
       </c>
@@ -800,8 +2650,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <f t="shared" si="2"/>
+        <v>0.20400000000000773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>49.523000000000003</v>
       </c>
@@ -834,8 +2688,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <f t="shared" si="2"/>
+        <v>-0.20199999999999818</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>0</v>
       </c>
@@ -868,8 +2726,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>46.222999999999999</v>
       </c>
@@ -902,8 +2764,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <f t="shared" si="2"/>
+        <v>0.14099999999999113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>78.055999999999997</v>
       </c>
@@ -936,8 +2802,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <f t="shared" si="2"/>
+        <v>0.85500000000000398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>22.742999999999999</v>
       </c>
@@ -970,8 +2840,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f t="shared" si="2"/>
+        <v>0.18200000000000216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>24.856999999999999</v>
       </c>
@@ -1004,13 +2878,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R18">
+        <f t="shared" si="2"/>
+        <v>0.10999999999999943</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>15.659000000000001</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>-54.006</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1038,8 +2916,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>74.272000000000006</v>
       </c>
@@ -1072,8 +2954,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R20">
+        <f t="shared" si="2"/>
+        <v>1.7870000000000061</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>40.716000000000001</v>
       </c>
@@ -1106,8 +2992,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R21">
+        <f t="shared" si="2"/>
+        <v>0.3100000000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>61.866999999999997</v>
       </c>
@@ -1140,8 +3030,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R22">
+        <f t="shared" si="2"/>
+        <v>-1.2130000000000081</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>43.179000000000002</v>
       </c>
@@ -1174,8 +3068,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R23">
+        <f t="shared" si="2"/>
+        <v>0.31700000000000017</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>0</v>
       </c>
@@ -1208,8 +3106,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>29.423999999999999</v>
       </c>
@@ -1242,8 +3144,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R25">
+        <f t="shared" si="2"/>
+        <v>-0.26800000000000068</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>59.564</v>
       </c>
@@ -1276,8 +3182,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0.38200000000000145</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>83.932000000000002</v>
       </c>
@@ -1310,8 +3220,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R27">
+        <f t="shared" si="2"/>
+        <v>-2.3789999999999907</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>47.536000000000001</v>
       </c>
@@ -1344,8 +3258,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R28">
+        <f t="shared" si="2"/>
+        <v>-0.28400000000000603</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>0</v>
       </c>
@@ -1378,8 +3296,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>44.494</v>
       </c>
@@ -1412,8 +3334,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <f t="shared" si="2"/>
+        <v>0.29100000000000037</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>89.048000000000002</v>
       </c>
@@ -1446,8 +3372,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R31">
+        <f t="shared" si="2"/>
+        <v>12.928999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>77.025000000000006</v>
       </c>
@@ -1480,8 +3410,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R32">
+        <f t="shared" si="2"/>
+        <v>-2.4930000000000092</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>65.102999999999994</v>
       </c>
@@ -1514,8 +3448,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R33">
+        <f t="shared" si="2"/>
+        <v>0.36800000000000033</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>76.748000000000005</v>
       </c>
@@ -1548,8 +3486,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R34">
+        <f t="shared" si="2"/>
+        <v>0.55499999999999972</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>68.962000000000003</v>
       </c>
@@ -1582,8 +3524,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R35">
+        <f t="shared" si="2"/>
+        <v>-0.24499999999999744</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>34.863</v>
       </c>
@@ -1616,8 +3562,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R36">
+        <f t="shared" si="2"/>
+        <v>-0.38000000000000966</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>53.957000000000001</v>
       </c>
@@ -1650,8 +3600,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R37">
+        <f t="shared" si="2"/>
+        <v>-0.31700000000000728</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>71.682000000000002</v>
       </c>
@@ -1684,8 +3638,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R38">
+        <f t="shared" si="2"/>
+        <v>-1.9080000000000155</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>77.81</v>
       </c>
@@ -1718,8 +3676,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R39">
+        <f t="shared" si="2"/>
+        <v>-2.6880000000000024</v>
+      </c>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>46.933</v>
       </c>
@@ -1752,8 +3714,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R40">
+        <f t="shared" si="2"/>
+        <v>-0.53000000000000114</v>
+      </c>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>83.745999999999995</v>
       </c>
@@ -1786,8 +3752,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R41">
+        <f t="shared" si="2"/>
+        <v>4.1389999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>81.468000000000004</v>
       </c>
@@ -1820,31 +3790,35 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R42">
+        <f t="shared" si="2"/>
+        <v>-3.4120000000000061</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B43">
-        <v>89.629000000000005</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>98.968000000000004</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>376</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>89.424999999999997</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <f t="shared" si="0"/>
@@ -1854,8 +3828,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>24.616</v>
       </c>
@@ -1888,8 +3865,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R44">
+        <f t="shared" si="2"/>
+        <v>-0.29500000000001592</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>83.245000000000005</v>
       </c>
@@ -1922,8 +3903,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <f t="shared" si="2"/>
+        <v>4.1579999999999941</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>69.209999999999994</v>
       </c>
@@ -1956,8 +3941,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <f t="shared" si="2"/>
+        <v>-1.7740000000000009</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>55.487000000000002</v>
       </c>
@@ -1990,8 +3979,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <f t="shared" si="2"/>
+        <v>-0.59800000000001319</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>75.451999999999998</v>
       </c>
@@ -2024,8 +4017,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <f t="shared" si="2"/>
+        <v>1.875</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>78.356999999999999</v>
       </c>
@@ -2058,8 +4055,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <f t="shared" si="2"/>
+        <v>-6.0000000000002274E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>20.457000000000001</v>
       </c>
@@ -2092,8 +4093,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999687E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>46.011000000000003</v>
       </c>
@@ -2126,8 +4131,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <f t="shared" si="2"/>
+        <v>-0.19700000000000273</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>21.757999999999999</v>
       </c>
@@ -2160,8 +4169,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <f t="shared" si="2"/>
+        <v>-2.300000000000324E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>61.923999999999999</v>
       </c>
@@ -2194,8 +4207,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <f t="shared" si="2"/>
+        <v>0.90499999999999936</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>57.854999999999997</v>
       </c>
@@ -2228,8 +4245,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <f t="shared" si="2"/>
+        <v>-0.35099999999999909</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>70.807000000000002</v>
       </c>
@@ -2262,8 +4283,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <f t="shared" si="2"/>
+        <v>0.20199999999999818</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>75.287000000000006</v>
       </c>
@@ -2296,8 +4321,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <f t="shared" si="2"/>
+        <v>0.89699999999999136</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>56.619</v>
       </c>
@@ -2330,8 +4359,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R57">
+        <f t="shared" si="2"/>
+        <v>-0.17199999999999704</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>0</v>
       </c>
@@ -2364,8 +4397,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>50.731000000000002</v>
       </c>
@@ -2398,8 +4435,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R59">
+        <f t="shared" si="2"/>
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>62.981999999999999</v>
       </c>
@@ -2432,8 +4473,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R60">
+        <f t="shared" si="2"/>
+        <v>-1.1850000000000023</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>60.46</v>
       </c>
@@ -2466,8 +4511,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R61">
+        <f t="shared" si="2"/>
+        <v>4.5999999999992269E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>27.58</v>
       </c>
@@ -2500,8 +4549,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <f t="shared" si="2"/>
+        <v>0.19299999999999784</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>70.665000000000006</v>
       </c>
@@ -2534,8 +4587,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R63">
+        <f t="shared" si="2"/>
+        <v>1.3500000000000014</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>82.284000000000006</v>
       </c>
@@ -2568,8 +4625,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <f t="shared" si="2"/>
+        <v>0.53499999999999659</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>0</v>
       </c>
@@ -2602,8 +4663,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>43.982999999999997</v>
       </c>
@@ -2636,8 +4701,12 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <f t="shared" si="2"/>
+        <v>-0.35200000000000387</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>71.218000000000004</v>
       </c>
@@ -2663,15 +4732,19 @@
         <v>-54.323999999999998</v>
       </c>
       <c r="N67">
-        <f t="shared" ref="N67:N130" si="2">D67 - F67</f>
+        <f t="shared" ref="N67:N130" si="3">D67 - F67</f>
         <v>0</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O130" si="3" xml:space="preserve"> E67 - G67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O67:O130" si="4" xml:space="preserve"> E67 - G67</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R130" si="5">C67-K67</f>
+        <v>1.4609999999999985</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>24.303999999999998</v>
       </c>
@@ -2697,15 +4770,19 @@
         <v>-174.32599999999999</v>
       </c>
       <c r="N68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O68">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="5"/>
+        <v>-0.1290000000000191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>86.558000000000007</v>
       </c>
@@ -2731,15 +4808,19 @@
         <v>-122.005</v>
       </c>
       <c r="N69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="5"/>
+        <v>2.840999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>38.070999999999998</v>
       </c>
@@ -2765,15 +4846,19 @@
         <v>83.588999999999999</v>
       </c>
       <c r="N70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="5"/>
+        <v>-0.16899999999999693</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>38.18</v>
       </c>
@@ -2799,15 +4884,19 @@
         <v>-17.928000000000001</v>
       </c>
       <c r="N71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="5"/>
+        <v>0.26099999999999923</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>46.238999999999997</v>
       </c>
@@ -2833,15 +4922,19 @@
         <v>-73.706000000000003</v>
       </c>
       <c r="N72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="5"/>
+        <v>0.38100000000000023</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>30.425000000000001</v>
       </c>
@@ -2867,15 +4960,19 @@
         <v>-112.10899999999999</v>
       </c>
       <c r="N73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O73">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="5"/>
+        <v>0.13299999999999557</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>35.058</v>
       </c>
@@ -2901,15 +4998,19 @@
         <v>-114.163</v>
       </c>
       <c r="N74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O74">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="5"/>
+        <v>0.22699999999998965</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>60.521000000000001</v>
       </c>
@@ -2935,15 +5036,19 @@
         <v>45.515999999999998</v>
       </c>
       <c r="N75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O75">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="5"/>
+        <v>-0.29299999999999926</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>27.582000000000001</v>
       </c>
@@ -2969,49 +5074,57 @@
         <v>-150.69999999999999</v>
       </c>
       <c r="N76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O76">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="5"/>
+        <v>-9.4999999999998863E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>51.057000000000002</v>
       </c>
@@ -3037,15 +5150,19 @@
         <v>-23.86</v>
       </c>
       <c r="N78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="5"/>
+        <v>0.76899999999999835</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>54.256999999999998</v>
       </c>
@@ -3071,15 +5188,19 @@
         <v>-70.498000000000005</v>
       </c>
       <c r="N79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O79">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="5"/>
+        <v>0.78400000000000603</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>49.319000000000003</v>
       </c>
@@ -3105,15 +5226,19 @@
         <v>3.3380000000000001</v>
       </c>
       <c r="N80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="5"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>24.59</v>
       </c>
@@ -3139,15 +5264,19 @@
         <v>106.432</v>
       </c>
       <c r="N81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O81">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="5"/>
+        <v>-0.29300000000000637</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>38.454999999999998</v>
       </c>
@@ -3173,15 +5302,19 @@
         <v>-44.314999999999998</v>
       </c>
       <c r="N82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O82">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="5"/>
+        <v>0.61399999999999721</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>25.074000000000002</v>
       </c>
@@ -3207,15 +5340,19 @@
         <v>11.722</v>
       </c>
       <c r="N83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="5"/>
+        <v>9.5000000000000639E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>61.942</v>
       </c>
@@ -3241,15 +5378,19 @@
         <v>159.179</v>
       </c>
       <c r="N84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O84">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="5"/>
+        <v>-1.1380000000000052</v>
+      </c>
+    </row>
+    <row r="85" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>19.925000000000001</v>
       </c>
@@ -3275,15 +5416,19 @@
         <v>17.873999999999999</v>
       </c>
       <c r="N85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="5"/>
+        <v>0.18200000000000216</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>40.201999999999998</v>
       </c>
@@ -3309,15 +5454,19 @@
         <v>31.38</v>
       </c>
       <c r="N86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O86">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="87" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="5"/>
+        <v>-4.4000000000000483E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>73.381</v>
       </c>
@@ -3343,15 +5492,19 @@
         <v>-73.686000000000007</v>
       </c>
       <c r="N87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O87">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="5"/>
+        <v>2.1350000000000051</v>
+      </c>
+    </row>
+    <row r="88" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>52.326000000000001</v>
       </c>
@@ -3377,15 +5530,19 @@
         <v>-97.319000000000003</v>
       </c>
       <c r="N88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="5"/>
+        <v>0.29500000000000171</v>
+      </c>
+    </row>
+    <row r="89" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>22.454999999999998</v>
       </c>
@@ -3411,15 +5568,19 @@
         <v>-109.96899999999999</v>
       </c>
       <c r="N89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="5"/>
+        <v>8.3999999999988972E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>71.926000000000002</v>
       </c>
@@ -3445,15 +5606,19 @@
         <v>-119.291</v>
       </c>
       <c r="N90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O90">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="5"/>
+        <v>0.74599999999999511</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>71.787000000000006</v>
       </c>
@@ -3479,15 +5644,19 @@
         <v>-24.341000000000001</v>
       </c>
       <c r="N91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="5"/>
+        <v>1.1930000000000014</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>65.111999999999995</v>
       </c>
@@ -3513,15 +5682,19 @@
         <v>153.82499999999999</v>
       </c>
       <c r="N92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O92">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="5"/>
+        <v>-1.407999999999987</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>55.582999999999998</v>
       </c>
@@ -3547,49 +5720,57 @@
         <v>-113.429</v>
       </c>
       <c r="N93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="5"/>
+        <v>-3.6999999999991928E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="N94">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>54.89</v>
       </c>
@@ -3615,15 +5796,19 @@
         <v>-139.83000000000001</v>
       </c>
       <c r="N95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O95">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="5"/>
+        <v>-0.16700000000000159</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>69.355000000000004</v>
       </c>
@@ -3649,15 +5834,19 @@
         <v>-34.286999999999999</v>
       </c>
       <c r="N96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="5"/>
+        <v>1.4260000000000019</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>42.408000000000001</v>
       </c>
@@ -3683,15 +5872,19 @@
         <v>-85.941000000000003</v>
       </c>
       <c r="N97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="5"/>
+        <v>0.3370000000000033</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>41.773000000000003</v>
       </c>
@@ -3717,15 +5910,19 @@
         <v>76.319000000000003</v>
       </c>
       <c r="N98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O98">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="5"/>
+        <v>-0.28100000000000591</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>72.260000000000005</v>
       </c>
@@ -3751,15 +5948,19 @@
         <v>-137.643</v>
       </c>
       <c r="N99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="5"/>
+        <v>-8.6999999999989086E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>66.266000000000005</v>
       </c>
@@ -3785,15 +5986,19 @@
         <v>-66.317999999999998</v>
       </c>
       <c r="N100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="5"/>
+        <v>1.078000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>56.067</v>
       </c>
@@ -3819,15 +6024,19 @@
         <v>2.4369999999999998</v>
       </c>
       <c r="N101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="5"/>
+        <v>0.39200000000000035</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>83.159000000000006</v>
       </c>
@@ -3853,15 +6062,19 @@
         <v>-86.82</v>
       </c>
       <c r="N102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O102">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="5"/>
+        <v>1.313999999999993</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>25.919</v>
       </c>
@@ -3887,15 +6100,19 @@
         <v>-169.30799999999999</v>
       </c>
       <c r="N103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="5"/>
+        <v>-0.17300000000000182</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>15.692</v>
       </c>
@@ -3921,15 +6138,19 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>50.911000000000001</v>
       </c>
@@ -3955,15 +6176,19 @@
         <v>27.923999999999999</v>
       </c>
       <c r="N105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="5"/>
+        <v>0.34499999999999886</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>71.016999999999996</v>
       </c>
@@ -3989,49 +6214,57 @@
         <v>-15.781000000000001</v>
       </c>
       <c r="N106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="5"/>
+        <v>0.96700000000000053</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="N107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="J107">
-        <v>0</v>
-      </c>
-      <c r="K107">
-        <v>0</v>
-      </c>
-      <c r="N107">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>48.308999999999997</v>
       </c>
@@ -4057,15 +6290,19 @@
         <v>-96.789000000000001</v>
       </c>
       <c r="N108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R108">
+        <f t="shared" si="5"/>
+        <v>0.1629999999999967</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>50.887999999999998</v>
       </c>
@@ -4091,15 +6328,19 @@
         <v>44.643999999999998</v>
       </c>
       <c r="N109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000682E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>35.668999999999997</v>
       </c>
@@ -4125,15 +6366,19 @@
         <v>-37.976999999999997</v>
       </c>
       <c r="N110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R110">
+        <f t="shared" si="5"/>
+        <v>0.36199999999999477</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>60.604999999999997</v>
       </c>
@@ -4159,15 +6404,19 @@
         <v>176.42400000000001</v>
       </c>
       <c r="N111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R111">
+        <f t="shared" si="5"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>86.980999999999995</v>
       </c>
@@ -4193,49 +6442,57 @@
         <v>150.255</v>
       </c>
       <c r="N112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O112">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R112">
+        <f t="shared" si="5"/>
+        <v>-11.594999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="N113">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="J113">
-        <v>0</v>
-      </c>
-      <c r="K113">
-        <v>0</v>
-      </c>
-      <c r="N113">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>82.102999999999994</v>
       </c>
@@ -4261,15 +6518,19 @@
         <v>-87.138000000000005</v>
       </c>
       <c r="N114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O114">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R114">
+        <f t="shared" si="5"/>
+        <v>1.4120000000000061</v>
+      </c>
+    </row>
+    <row r="115" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>63.170999999999999</v>
       </c>
@@ -4295,15 +6556,19 @@
         <v>65.283000000000001</v>
       </c>
       <c r="N115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O115">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <f t="shared" si="5"/>
+        <v>-0.58100000000000307</v>
+      </c>
+    </row>
+    <row r="116" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>79.075999999999993</v>
       </c>
@@ -4329,15 +6594,19 @@
         <v>81.254000000000005</v>
       </c>
       <c r="N116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <f t="shared" si="5"/>
+        <v>-1.612000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>81.459000000000003</v>
       </c>
@@ -4363,15 +6632,19 @@
         <v>55.491</v>
       </c>
       <c r="N117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O117">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R117">
+        <f t="shared" si="5"/>
+        <v>-0.13799999999999812</v>
+      </c>
+    </row>
+    <row r="118" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>50.466000000000001</v>
       </c>
@@ -4397,15 +6670,19 @@
         <v>101.017</v>
       </c>
       <c r="N118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <f t="shared" si="5"/>
+        <v>-0.55799999999999272</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>32.796999999999997</v>
       </c>
@@ -4431,15 +6708,19 @@
         <v>145.80199999999999</v>
       </c>
       <c r="N119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O119">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="120" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="5"/>
+        <v>-0.46299999999999386</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>18.725999999999999</v>
       </c>
@@ -4465,15 +6746,19 @@
         <v>-59.862000000000002</v>
       </c>
       <c r="N120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O120">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <f t="shared" si="5"/>
+        <v>0.16100000000000136</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>34.1</v>
       </c>
@@ -4499,15 +6784,19 @@
         <v>-108.95399999999999</v>
       </c>
       <c r="N121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <f t="shared" si="5"/>
+        <v>0.16599999999999682</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>87.557000000000002</v>
       </c>
@@ -4533,15 +6822,19 @@
         <v>101.31</v>
       </c>
       <c r="N122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O122">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="123" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R122">
+        <f t="shared" si="5"/>
+        <v>-13.442999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>49.997999999999998</v>
       </c>
@@ -4567,49 +6860,57 @@
         <v>-7.8529999999999998</v>
       </c>
       <c r="N123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O123">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R123">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>0</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="N124">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="J124">
-        <v>0</v>
-      </c>
-      <c r="K124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>40.587000000000003</v>
       </c>
@@ -4635,15 +6936,19 @@
         <v>129.80600000000001</v>
       </c>
       <c r="N125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R125">
+        <f t="shared" si="5"/>
+        <v>-0.40700000000001069</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>25.561</v>
       </c>
@@ -4669,15 +6974,19 @@
         <v>27.613</v>
       </c>
       <c r="N126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O126">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="127" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R126">
+        <f t="shared" si="5"/>
+        <v>7.0000000000014495E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>75.366</v>
       </c>
@@ -4703,49 +7012,57 @@
         <v>-94.513999999999996</v>
       </c>
       <c r="N127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="O127">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <f t="shared" si="5"/>
+        <v>0.89000000000000057</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="N128">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="J128">
-        <v>0</v>
-      </c>
-      <c r="K128">
-        <v>0</v>
-      </c>
-      <c r="N128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
       <c r="O128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>50.808</v>
       </c>
@@ -4771,49 +7088,57 @@
         <v>-119.867</v>
       </c>
       <c r="N129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O129">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="R129">
+        <f t="shared" si="5"/>
+        <v>0.32099999999999795</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="N130">
         <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="J130">
-        <v>0</v>
-      </c>
-      <c r="K130">
-        <v>0</v>
-      </c>
-      <c r="N130">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O130">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B131">
         <v>49.962000000000003</v>
       </c>
@@ -4839,15 +7164,19 @@
         <v>-10.739000000000001</v>
       </c>
       <c r="N131">
-        <f t="shared" ref="N131:N151" si="4">D131 - F131</f>
+        <f t="shared" ref="N131:N151" si="6">D131 - F131</f>
         <v>0</v>
       </c>
       <c r="O131">
-        <f t="shared" ref="O131:O151" si="5" xml:space="preserve"> E131 - G131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" ref="O131:O151" si="7" xml:space="preserve"> E131 - G131</f>
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <f t="shared" ref="R131:R151" si="8">C131-K131</f>
+        <v>0.33100000000000129</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B132">
         <v>85.23</v>
       </c>
@@ -4873,15 +7202,19 @@
         <v>68.198999999999998</v>
       </c>
       <c r="N132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O132">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R132">
+        <f t="shared" si="8"/>
+        <v>-2.688999999999993</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B133">
         <v>86.605999999999995</v>
       </c>
@@ -4907,15 +7240,19 @@
         <v>-150.94499999999999</v>
       </c>
       <c r="N133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O133">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R133">
+        <f t="shared" si="8"/>
+        <v>-3.335000000000008</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B134">
         <v>48.268000000000001</v>
       </c>
@@ -4941,15 +7278,19 @@
         <v>-144.934</v>
       </c>
       <c r="N134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O134">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <f t="shared" si="8"/>
+        <v>-0.242999999999995</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B135">
         <v>24.547999999999998</v>
       </c>
@@ -4975,15 +7316,19 @@
         <v>114.56699999999999</v>
       </c>
       <c r="N135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O135">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <f t="shared" si="8"/>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B136">
         <v>32.204999999999998</v>
       </c>
@@ -5009,15 +7354,19 @@
         <v>-126.158</v>
       </c>
       <c r="N136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O136">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="8"/>
+        <v>0.10999999999999943</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B137">
         <v>37.231999999999999</v>
       </c>
@@ -5043,15 +7392,19 @@
         <v>6.5460000000000003</v>
       </c>
       <c r="N137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O137">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="8"/>
+        <v>0.14799999999999969</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B138">
         <v>0</v>
       </c>
@@ -5077,15 +7430,19 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O138">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B139">
         <v>25.974</v>
       </c>
@@ -5111,15 +7468,19 @@
         <v>-16.928000000000001</v>
       </c>
       <c r="N139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O139">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="140" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="8"/>
+        <v>0.29500000000000171</v>
+      </c>
+    </row>
+    <row r="140" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B140">
         <v>55.408999999999999</v>
       </c>
@@ -5145,15 +7506,19 @@
         <v>117.621</v>
       </c>
       <c r="N140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O140">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <f t="shared" si="8"/>
+        <v>-0.50799999999999557</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B141">
         <v>83.322000000000003</v>
       </c>
@@ -5179,15 +7544,19 @@
         <v>-132.709</v>
       </c>
       <c r="N141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O141">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <f t="shared" si="8"/>
+        <v>0.65100000000001046</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B142">
         <v>76.129000000000005</v>
       </c>
@@ -5213,15 +7582,19 @@
         <v>-41.496000000000002</v>
       </c>
       <c r="N142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O142">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <f t="shared" si="8"/>
+        <v>2.2340000000000018</v>
+      </c>
+    </row>
+    <row r="143" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B143">
         <v>23.49</v>
       </c>
@@ -5247,15 +7620,19 @@
         <v>109.499</v>
       </c>
       <c r="N143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O143">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="144" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R143">
+        <f t="shared" si="8"/>
+        <v>-0.2879999999999967</v>
+      </c>
+    </row>
+    <row r="144" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B144">
         <v>85.162000000000006</v>
       </c>
@@ -5281,15 +7658,19 @@
         <v>-41.634</v>
       </c>
       <c r="N144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O144">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R144">
+        <f t="shared" si="8"/>
+        <v>5.3669999999999973</v>
+      </c>
+    </row>
+    <row r="145" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B145">
         <v>47.85</v>
       </c>
@@ -5315,15 +7696,19 @@
         <v>-30.579000000000001</v>
       </c>
       <c r="N145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O145">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <f t="shared" si="8"/>
+        <v>0.62699999999999889</v>
+      </c>
+    </row>
+    <row r="146" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B146">
         <v>37.451000000000001</v>
       </c>
@@ -5349,15 +7734,19 @@
         <v>46.106000000000002</v>
       </c>
       <c r="N146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O146">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <f t="shared" si="8"/>
+        <v>-3.6000000000001364E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>66.641000000000005</v>
       </c>
@@ -5383,15 +7772,19 @@
         <v>-25.71</v>
       </c>
       <c r="N147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O147">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="148" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R147">
+        <f t="shared" si="8"/>
+        <v>1.1039999999999992</v>
+      </c>
+    </row>
+    <row r="148" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B148">
         <v>88.760999999999996</v>
       </c>
@@ -5414,18 +7807,22 @@
         <v>88.325000000000003</v>
       </c>
       <c r="K148">
-        <v>-165.964</v>
+        <v>165.964</v>
       </c>
       <c r="N148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O148">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <f t="shared" si="8"/>
+        <v>8.2990000000000066</v>
+      </c>
+    </row>
+    <row r="149" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B149">
         <v>76.626999999999995</v>
       </c>
@@ -5451,15 +7848,19 @@
         <v>-140.82599999999999</v>
       </c>
       <c r="N149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="O149">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R149">
+        <f t="shared" si="8"/>
+        <v>-0.93600000000000705</v>
+      </c>
+    </row>
+    <row r="150" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B150">
         <v>60.207000000000001</v>
       </c>
@@ -5485,15 +7886,19 @@
         <v>-109.32299999999999</v>
       </c>
       <c r="N150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O150">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="151" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R150">
+        <f t="shared" si="8"/>
+        <v>0.64599999999998658</v>
+      </c>
+    </row>
+    <row r="151" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B151">
         <v>50.825000000000003</v>
       </c>
@@ -5519,49 +7924,53 @@
         <v>-58.523000000000003</v>
       </c>
       <c r="N151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O151">
-        <f t="shared" si="5"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="152" spans="2:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+      <c r="R151">
+        <f t="shared" si="8"/>
+        <v>0.74100000000000676</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" ref="B152:G152" si="6">SUM(B2:B151)</f>
-        <v>7421.5599999999995</v>
+        <f t="shared" ref="B152:G152" si="9">SUM(B2:B151)</f>
+        <v>7316.2719999999999</v>
       </c>
       <c r="C152">
-        <f t="shared" si="6"/>
-        <v>-1830.4450000000008</v>
+        <f t="shared" si="9"/>
+        <v>-1875.4070000000008</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
-        <v>51363</v>
+        <f t="shared" si="9"/>
+        <v>50987</v>
       </c>
       <c r="E152">
-        <f t="shared" si="6"/>
-        <v>48898</v>
+        <f t="shared" si="9"/>
+        <v>48521</v>
       </c>
       <c r="F152">
-        <f t="shared" si="6"/>
-        <v>51426</v>
+        <f t="shared" si="9"/>
+        <v>51050</v>
       </c>
       <c r="G152">
-        <f t="shared" si="6"/>
-        <v>48961</v>
+        <f t="shared" si="9"/>
+        <v>48584</v>
       </c>
       <c r="J152">
         <f>SUM(J2:J151)</f>
-        <v>7386.1730000000007</v>
+        <v>7296.7480000000005</v>
       </c>
       <c r="K152">
         <f>SUM(K2:K151)</f>
-        <v>-2088.3020000000001</v>
-      </c>
-    </row>
-    <row r="156" spans="2:15" x14ac:dyDescent="0.25">
+        <v>-1891.3740000000003</v>
+      </c>
+    </row>
+    <row r="156" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>8</v>
       </c>
@@ -5578,28 +7987,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B157">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D157">
         <f>(D152 - F152) / (150 - B157)</f>
-        <v>-0.46323529411764708</v>
+        <v>-0.46666666666666667</v>
       </c>
       <c r="E157">
         <f xml:space="preserve"> (E152 - G152) / (150 - B157)</f>
-        <v>-0.46323529411764708</v>
+        <v>-0.46666666666666667</v>
       </c>
       <c r="G157">
         <f xml:space="preserve"> ABS(B152 - J152) / (150 - B157)</f>
-        <v>0.26019852941175592</v>
+        <v>0.14462222222221802</v>
       </c>
       <c r="H157">
         <f xml:space="preserve"> ABS(C152 - K152) / (150 - B157)</f>
-        <v>1.8960073529411712</v>
+        <v>0.11827407407406974</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>